--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ515\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2018970A-6357-48C7-ADE4-C608FAE3E793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B60BF-2D28-42C5-99E7-4F1E3A102329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
@@ -104,18 +104,6 @@
     <t>button_C</t>
   </si>
   <si>
-    <t>date/time: up</t>
-  </si>
-  <si>
-    <t>date/time: down</t>
-  </si>
-  <si>
-    <t>date/time: confirm</t>
-  </si>
-  <si>
-    <t>SD:</t>
-  </si>
-  <si>
     <t>MOSI</t>
   </si>
   <si>
@@ -143,33 +131,12 @@
     <t>PF3</t>
   </si>
   <si>
-    <t>PF4</t>
-  </si>
-  <si>
     <t>Thermocouples:</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>Backlight</t>
   </si>
   <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
     <t>PF5</t>
   </si>
   <si>
@@ -200,7 +167,109 @@
     <t>DigitalOut</t>
   </si>
   <si>
-    <t>SPI</t>
+    <t>addr1:addr0</t>
+  </si>
+  <si>
+    <t>PC0:PC3</t>
+  </si>
+  <si>
+    <t>4x1 mux</t>
+  </si>
+  <si>
+    <t>2-bit address</t>
+  </si>
+  <si>
+    <t>PD1:PD0</t>
+  </si>
+  <si>
+    <t>PG2*</t>
+  </si>
+  <si>
+    <t>Maintenance LED</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>Charge Monitor</t>
+  </si>
+  <si>
+    <t>Light Level Monitor</t>
+  </si>
+  <si>
+    <t>mic1:mic0</t>
+  </si>
+  <si>
+    <t>2 microphones</t>
+  </si>
+  <si>
+    <t>Interrupts:</t>
+  </si>
+  <si>
+    <t>Low Battery Warning</t>
+  </si>
+  <si>
+    <t>Light wake/sleep</t>
+  </si>
+  <si>
+    <t>mic_int1:mic_int0</t>
+  </si>
+  <si>
+    <t>Acc_int</t>
+  </si>
+  <si>
+    <t>Maintenance_int</t>
+  </si>
+  <si>
+    <t>PA5:PA6</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>PF12</t>
+  </si>
+  <si>
+    <t>PF13</t>
+  </si>
+  <si>
+    <t>one interrupt/microphone</t>
+  </si>
+  <si>
+    <t>Buttons:</t>
+  </si>
+  <si>
+    <t>Thermo_out</t>
+  </si>
+  <si>
+    <t>InterruptIn</t>
+  </si>
+  <si>
+    <t>PA4*</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>to set date/time</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>acclerometer interrupt</t>
+  </si>
+  <si>
+    <t>SD Card:</t>
   </si>
 </sst>
 </file>
@@ -232,15 +301,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -248,14 +329,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +630,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>17340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -430,7 +650,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -475,8 +695,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>50880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -495,7 +715,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -540,8 +760,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>76860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -560,7 +780,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -605,8 +825,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>42000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -625,7 +845,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -670,8 +890,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>3701</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -690,7 +910,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -735,8 +955,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Ink 11">
@@ -755,7 +975,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Ink 11">
@@ -800,8 +1020,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>57180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Ink 12">
@@ -820,7 +1040,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Ink 12">
@@ -865,8 +1085,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>74760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Ink 13">
@@ -885,7 +1105,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Ink 13">
@@ -930,8 +1150,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>81660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -950,7 +1170,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -995,8 +1215,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>152880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Ink 17">
@@ -1015,7 +1235,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Ink 17">
@@ -1060,8 +1280,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>155340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Ink 18">
@@ -1080,7 +1300,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Ink 18">
@@ -1125,8 +1345,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>46740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -1145,7 +1365,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -1190,8 +1410,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>35880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -1210,7 +1430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -1255,8 +1475,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>59160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Ink 21">
@@ -1275,7 +1495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Ink 21">
@@ -1310,331 +1530,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>287355</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333795</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>59100</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="24" name="Ink 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A03059-3531-FC9C-5266-DD96A83954D4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6164280" y="6114780"/>
-            <a:ext cx="46440" cy="40320"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="24" name="Ink 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A03059-3531-FC9C-5266-DD96A83954D4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6158160" y="6108660"/>
-              <a:ext cx="58680" cy="52560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>541710</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>71157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>554070</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>97563</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="26" name="Ink 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134A244E-2FE9-4651-58C1-B0CDD85FC682}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm rot="-4080222">
-            <a:off x="14946012" y="6555180"/>
-            <a:ext cx="26406" cy="12360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="26" name="Ink 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134A244E-2FE9-4651-58C1-B0CDD85FC682}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="-4080222">
-              <a:off x="14939863" y="6549000"/>
-              <a:ext cx="38705" cy="24720"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>505590</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>78240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>566070</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>116040</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="27" name="Ink 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C0E65F-FB5D-E1E6-209C-C5FD5ACD613F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="14916915" y="6555240"/>
-            <a:ext cx="60480" cy="37800"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="27" name="Ink 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C0E65F-FB5D-E1E6-209C-C5FD5ACD613F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14910795" y="6549120"/>
-              <a:ext cx="72720" cy="50040"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>315435</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>337395</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="29" name="Ink 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E5BD7E-FB48-7ED4-ECC5-AA7D1A7D3A14}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6192360" y="5715360"/>
-            <a:ext cx="21960" cy="21600"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="29" name="Ink 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E5BD7E-FB48-7ED4-ECC5-AA7D1A7D3A14}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6186240" y="5709240"/>
-              <a:ext cx="34200" cy="33840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312915</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>356115</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>29820</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="30" name="Ink 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC7FAF0-E072-CF7D-C881-335C65714C05}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6189840" y="5906520"/>
-            <a:ext cx="43200" cy="28800"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="Ink 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC7FAF0-E072-CF7D-C881-335C65714C05}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6183720" y="5900400"/>
-              <a:ext cx="55440" cy="41040"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>321915</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>18540</xdr:rowOff>
@@ -1645,9 +1540,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>51660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
               <a:extLst>
@@ -1665,7 +1560,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -1700,58 +1595,58 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>332604</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>42636</xdr:rowOff>
+      <xdr:colOff>305715</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>354786</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>86484</xdr:rowOff>
+      <xdr:colOff>349635</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="33" name="Ink 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE791AE-92E0-51A3-93B2-8A714232159C}"/>
+            <xdr14:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEA50EF-BFAB-CF14-5344-DD24AE54F539}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
-          <xdr14:xfrm rot="-6977488">
-            <a:off x="6198696" y="6530469"/>
-            <a:ext cx="43848" cy="22182"/>
+          <xdr14:xfrm>
+            <a:off x="6182640" y="8383680"/>
+            <a:ext cx="43920" cy="29520"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Ink 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE791AE-92E0-51A3-93B2-8A714232159C}"/>
+            <xdr:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEA50EF-BFAB-CF14-5344-DD24AE54F539}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
-            <a:xfrm rot="-6977488">
-              <a:off x="6192536" y="6524287"/>
-              <a:ext cx="56169" cy="34546"/>
+            <a:xfrm>
+              <a:off x="6176520" y="8377560"/>
+              <a:ext cx="56160" cy="41760"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1765,24 +1660,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>306075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>40620</xdr:rowOff>
+      <xdr:colOff>299595</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>360435</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>79140</xdr:rowOff>
+      <xdr:colOff>351075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>39360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="34" name="Ink 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B96C743-0A0B-4E68-1F8F-3F3BAC95F1B7}"/>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093251DF-676C-1933-BBC0-66A35DB3B785}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1790,33 +1685,33 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="6183000" y="6517620"/>
-            <a:ext cx="54360" cy="38520"/>
+            <a:off x="6176520" y="8162460"/>
+            <a:ext cx="51480" cy="68400"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="Ink 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B96C743-0A0B-4E68-1F8F-3F3BAC95F1B7}"/>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093251DF-676C-1933-BBC0-66A35DB3B785}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6176880" y="6511500"/>
-              <a:ext cx="66600" cy="50760"/>
+              <a:off x="6170400" y="8156340"/>
+              <a:ext cx="63720" cy="80640"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1830,24 +1725,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>305715</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>1680</xdr:rowOff>
+      <xdr:colOff>320835</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>349635</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>31200</xdr:rowOff>
+      <xdr:colOff>357555</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="35" name="Ink 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEA50EF-BFAB-CF14-5344-DD24AE54F539}"/>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A5081F-F479-65F0-C4CC-170A4938026B}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1855,33 +1750,1463 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="6182640" y="8383680"/>
-            <a:ext cx="43920" cy="29520"/>
+            <a:off x="6197760" y="7955820"/>
+            <a:ext cx="36720" cy="36720"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="35" name="Ink 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEA50EF-BFAB-CF14-5344-DD24AE54F539}"/>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A5081F-F479-65F0-C4CC-170A4938026B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6176520" y="8377560"/>
-              <a:ext cx="56160" cy="41760"/>
+              <a:off x="6191640" y="7949700"/>
+              <a:ext cx="48960" cy="48960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>418035</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>441435</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130140</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C4A7EE-7DDA-7483-0359-04EA0E5061D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13610160" y="7529760"/>
+            <a:ext cx="23400" cy="29880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C4A7EE-7DDA-7483-0359-04EA0E5061D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13604040" y="7523640"/>
+              <a:ext cx="35640" cy="42120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304020</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B99FC9-95C2-9693-C35D-EC53A1B9F89C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6361920" y="5684760"/>
+            <a:ext cx="36000" cy="48240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B99FC9-95C2-9693-C35D-EC53A1B9F89C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6355800" y="5678640"/>
+              <a:ext cx="48240" cy="60480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304740</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>337500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6E1B11-ED19-E546-5E09-25157C4D596B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6362640" y="5915880"/>
+            <a:ext cx="32760" cy="32040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6E1B11-ED19-E546-5E09-25157C4D596B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6356520" y="5909760"/>
+              <a:ext cx="45000" cy="44280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>326340</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>363420</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F132C92C-F0C5-8D52-B3D3-EEA0A0A6AE06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6384240" y="6100200"/>
+            <a:ext cx="37080" cy="41040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F132C92C-F0C5-8D52-B3D3-EEA0A0A6AE06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6378120" y="6094080"/>
+              <a:ext cx="49320" cy="53280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>135645</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>155445</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="42" name="Ink 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDADE70C-4600-2397-11CB-6609204F4CAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22652745" y="4428540"/>
+            <a:ext cx="19800" cy="19440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="Ink 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDADE70C-4600-2397-11CB-6609204F4CAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22646625" y="4422420"/>
+              <a:ext cx="32040" cy="31680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>137880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>180720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B4308C-640D-3E5E-3106-A9C3C2107C79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22654980" y="4599720"/>
+            <a:ext cx="42840" cy="21240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B4308C-640D-3E5E-3106-A9C3C2107C79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22648860" y="4593600"/>
+              <a:ext cx="55080" cy="33480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>106560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>145080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217C00B5-5F86-2E31-B369-8948B273C9A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22623660" y="5180400"/>
+            <a:ext cx="38520" cy="38160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217C00B5-5F86-2E31-B369-8948B273C9A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22617540" y="5174280"/>
+              <a:ext cx="50760" cy="50400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>111600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>154440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5CDBD3-FB25-2A1A-D98F-DC58E30303B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22628700" y="4968720"/>
+            <a:ext cx="42840" cy="38520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5CDBD3-FB25-2A1A-D98F-DC58E30303B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22622580" y="4962600"/>
+              <a:ext cx="55080" cy="50760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>98640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>164880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="48" name="Ink 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD5C53-3788-139A-EB71-4EAEA9E5C9C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22615740" y="5353920"/>
+            <a:ext cx="66240" cy="28800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="48" name="Ink 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CD5C53-3788-139A-EB71-4EAEA9E5C9C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22609620" y="5347800"/>
+              <a:ext cx="78480" cy="41040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>116340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>130320</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="50" name="Ink 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFBC6A1-4E6F-62BE-8E91-9398DBC28A12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22632660" y="5640840"/>
+            <a:ext cx="14760" cy="14760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Ink 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFBC6A1-4E6F-62BE-8E91-9398DBC28A12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22626540" y="5634720"/>
+              <a:ext cx="27000" cy="27000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>110160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137940</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A6AE0A-22A0-C78E-1131-EFDFE333F666}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22627260" y="5606640"/>
+            <a:ext cx="38880" cy="55800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A6AE0A-22A0-C78E-1131-EFDFE333F666}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22621140" y="5600520"/>
+              <a:ext cx="51120" cy="68040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>110160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>159120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA815D0-7734-0E4A-E42D-CBC011F3BC5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22627260" y="5153400"/>
+            <a:ext cx="48960" cy="56880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA815D0-7734-0E4A-E42D-CBC011F3BC5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22621140" y="5147280"/>
+              <a:ext cx="61200" cy="69120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>110160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1D0B10-A651-E048-64C8-A439357EAB92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22627260" y="4963680"/>
+            <a:ext cx="45000" cy="39240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1D0B10-A651-E048-64C8-A439357EAB92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22621140" y="4957560"/>
+              <a:ext cx="57240" cy="51480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>183240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAF525B-70A4-5069-2224-E13598FC631B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22672260" y="4600800"/>
+            <a:ext cx="28080" cy="32760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAF525B-70A4-5069-2224-E13598FC631B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22666140" y="4594680"/>
+              <a:ext cx="40320" cy="45000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>126360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>166320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="55" name="Ink 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F27D8B-45C8-57E2-655C-207D634E2130}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22643460" y="4415760"/>
+            <a:ext cx="39960" cy="55800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="55" name="Ink 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F27D8B-45C8-57E2-655C-207D634E2130}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22637340" y="4409640"/>
+              <a:ext cx="52200" cy="68040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303030</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346590</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAD9FB9-BCAF-46CB-61A3-BABBEC6EF825}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6646680" y="6499440"/>
+            <a:ext cx="43560" cy="34920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAD9FB9-BCAF-46CB-61A3-BABBEC6EF825}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6640560" y="6493320"/>
+              <a:ext cx="55800" cy="47160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>411810</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>475170</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>147060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="57" name="Ink 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4B8D7C-4A0B-8921-F312-CB06E5DB6A4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14070660" y="7527960"/>
+            <a:ext cx="63360" cy="48600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="Ink 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4B8D7C-4A0B-8921-F312-CB06E5DB6A4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14064540" y="7521840"/>
+              <a:ext cx="75600" cy="60840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>310950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>359190</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="58" name="Ink 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC9610B-5CE9-37A9-14D0-7134699E4554}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6654600" y="7935840"/>
+            <a:ext cx="48240" cy="41760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Ink 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC9610B-5CE9-37A9-14D0-7134699E4554}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6648480" y="7929720"/>
+              <a:ext cx="60480" cy="54000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294030</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325710</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>18300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF1485B-BF3E-729F-4238-008C9A976C29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6637680" y="8177400"/>
+            <a:ext cx="31680" cy="32400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF1485B-BF3E-729F-4238-008C9A976C29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6631560" y="8171280"/>
+              <a:ext cx="43920" cy="44640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>318870</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>34440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7951C6E4-F666-83FC-C328-87D18EA3B5A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6662520" y="8416440"/>
+            <a:ext cx="6480" cy="2520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7951C6E4-F666-83FC-C328-87D18EA3B5A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6656400" y="8410320"/>
+              <a:ext cx="18720" cy="14760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>481110</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>550950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986CBA0D-B862-47C6-8FC2-BF77A1762E42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15359160" y="5174460"/>
+            <a:ext cx="69840" cy="57240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986CBA0D-B862-47C6-8FC2-BF77A1762E42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15353040" y="5168340"/>
+              <a:ext cx="82080" cy="69480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>406275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>79155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128475</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87BA461-58C2-7AC7-A698-1857EE1A973A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14065125" y="4851180"/>
+            <a:ext cx="59400" cy="49320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87BA461-58C2-7AC7-A698-1857EE1A973A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14059005" y="4845060"/>
+              <a:ext cx="71640" cy="61560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2079,7 +3404,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:00.033"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:31.221"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2087,7 +3412,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 42 3217,'0'0'13697,"-13"9"-10959,13-9-2728,0 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1-1 0,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,1-1 1,33 1 15,-25 0 42,-9-2-6,-1 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0 0,1 1 0,-2-3 0,1 3-28,-1 1 0,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0 0 0,1-1 0,-1 1 1,-1 2-1,-1 27 10,3-18-68,1-11 15,1 1 0,-1-1 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 1,-1-1-1,1 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,1 0-1,0 0-32,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,3-3 0,-4 1 40,-1 0 0,1-1 1,-1 1-1,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,0-6 0,0 9 22,0-1 0,-1 1-1,1-1 1,0 1 0,0 0-1,0-1 1,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 1-1,1-1 1,0 1 0,-2-1-1,-3 0 75,-1 0 0,1 1 0,0 0-1,0 0 1,0 0 0,0 1 0,-1-1 0,1 2-1,-10 2 1,14-3-88,0 1 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,-1 1 0,2-1 0,-1 1 1,0-1-1,0 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,1 4-1,-1-5-9,0-1 0,-1 1 1,1 0-1,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 1,2 3-1,0-3-15,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-2 0,4 1 0,0 0-32,-5 0 38,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,3-3 0,-3 2 40,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,-2-3 1,2 5 2,0 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 1,-2 1-1,-35-1 577,28 2-360,9 32-226,1-32-11,5 31-298,-5-31 261,1 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,2 0 0,-2 0 57,-1-1-6,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-2 0 0,1 0-287,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-3 0 1,-16 1-8218</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">52 19 8036,'0'0'11866,"-3"-18"-9462,2 19-2402,-1-1-1,1 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0 2 1,1 44-1777,-1-48 1757,0 1 1,1-1 0,-1 1-1,0 0 1,1-1-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1-1,0-1 1,-1 1 0,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,0 0 1,1 1 44,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1-1 0,0-1 0,0 1 70,-1 1 1,1-1 0,-1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,0-2 0,-2 2-15,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,-5 1 0,-4-1-226,11 2 67,1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 1,1 2-1,5-2-74,0 0 0,0-1 0,1 0 0,-1 0 1,0 0-1,0-1 0,1-1 0,10 0 0,-17 0 186,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-2 0,0 1 63,-1 0-1,1-1 1,0 1-1,0 0 0,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 0,0 0 1,-2-3-1,0 4-112,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-6 1 0,-9 1-3852,2 3-5268</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2107,7 +3432,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:15.589"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:23:22.346"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2115,7 +3440,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 20770,'0'33'0,"72"-33"0,-72-33 0,-72 33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 23 9108,'0'0'11413,"0"0"-11474,2 0 120,-1 0 277,-5-18 832,3 18-1174,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 2 1,-1-3-13,0 1 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 1,1 0-1,-1-5-82,0 5 135,0 0 1,0 1-1,1-1 1,-1 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 43-126,0-41 53,1-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,0-1 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 0,4-1 1,-3 1 27,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 1-1,-1-3 1,1 2 53,-1 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 2 0,0-1 0,-3-2-1,0 2 69,0 0 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 1-1,-8 0 1,7 0-90,-5 0 103,9 0-125,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 1 1,0-1-25,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,2 1-37,0-1 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 0 0,4 0 1,5 0 171,-12 0-99,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-2-1 0,1 1 7,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,1 0 1,-1 0-1,0-1 1,0 1-1,-2 1 1,-38 0 326,28-1-284,13 1-66,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 2-1,0-2 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,2 1 0,5-1-71,35-4-86,-42 3 166,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-2 0 0,1-1 8,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 0,-2 0 1,-37 0 227,19 1-128,21-1-155,16 0 14,7 0-2772</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2135,7 +3460,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:18.166"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:08:04.503"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2143,7 +3468,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">94 31 5987,'0'0'6816,"0"3"-6256,0-2-475,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 0,0-1 0,-1 1 1,1 0-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0-1 58,0 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 1 0,1-1 0,-1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,-3-3 1,0 3-46,0 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1 1 0,1-1-1,-1 1 1,1 0-1,-8 2 1,10-2-88,1 0 0,-1 1 0,0-1 0,1 1 0,0-1 0,-1 1-1,1-1 1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,1 3 1,-1-3-11,-1 0-1,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,2 3-1,1-3 4,-1 1-1,1-1 1,-1 0 0,1-1-1,0 1 1,-1-1-1,1 1 1,0-1 0,-1 0-1,6-1 1,-9 1-1,4 0 6,0 1 0,-1-1-1,1-1 1,-1 1 0,1 0 0,0-1 0,-1 1-1,1-1 1,-1 0 0,1-1 0,-1 1-1,0 0 1,6-4 0,-8 3 1,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,0-4 0,0 4 14,0 0-1,0 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 1-1,0 0 1,1-1-1,-1 1 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 1 1,0-1-1,-5 0 1,-51-5 495,41 5-443,-14 4 25,30-3-99,0 1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 1,1 1-1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0-1 1,0 1-1,3 0 0,8 1-11,0 0 1,0-1-1,-1-1 1,18-1-1,0 1 6,-28 0 23,-2-1-13,1 1-1,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 0,1 0 0,-1 0 1,0-1-1,-25-12 22,24 11-14,-52-7-85,54 21-13176</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 189 7363,'0'0'11862,"-7"-28"-9349,7 27-2516,-1 0 0,1-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,2-1 1,-3 2 210,1-2-94,-1-1-299,-1-4-1999,38-5 946,-36 11 1248,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1-4 0,0-6 288,-32 11 625,38 27-1972,-1-25 840,0 1 0,0-1-1,1 0 1,-1 0 0,0-1 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,7-2 0,5 1-180,-16 1 424,1 0 1,-1-1-1,0 1 0,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 0,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,-11-10 495,5 8-401,-1 1 0,0-1 0,1 2 0,-1-1 0,0 1-1,0 0 1,-1 1 0,1-1 0,-8 2 0,14 0-141,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0 2-1,1 30-442,-1-24 337,1-8 82,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,2 0 0,28-2-363,-29 1 405,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,0 1 0,1-4 1,0-40 975,-1 34-472,0 11-474,0-1 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1-1,-1 1 1,0-1 0,1 1-1,-1 0 1,0-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-2 0-1,-30-5 551,24 5-542,1 0 0,-1 1 0,0 0 0,0 0 0,-13 4 0,20-4-119,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 1,0 1 0,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1 0,1 1-1,-1 0 1,0-1-1,1 1 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1-1 1,1 1 0,0 0-1,0 0 1,0 0-1,-1 0 1,1-1 0,0 3-1,0 9-3480</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2163,7 +3488,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:28.514"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:08:05.441"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2171,7 +3496,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 23075,'0'59'0,"60"-59"0,-60-59 0,-60 59 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 18760,'0'101'0,"101"-101"0,-101-101 0,-101 101 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2191,7 +3516,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:29.637"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:12:07.282"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2199,7 +3524,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">77 1 8724,'0'0'10394,"-6"0"-9820,-2 0-593,6 0 107,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,-3 1 1,4-1-72,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,1-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,0 0 1,0-1-1,1 3 0,0-3-22,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,40 0-631,-33-1 401,-8 1 251,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,-1-1-1,1 0 1,0 0-1,0 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,-1-2 1,0-4 566,-36 6 461,34 1-1050,-1 0-1,1 1 1,-1-1 0,1 1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1 0,0 1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,1 1 1,-1-1 0,1 0-1,0 0 1,0 1 0,0-1 0,0 1-1,0 3 1,27-6-495,-24 0 516,0-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0-1 0,-1 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,2-2 0,-2 0 55,0 1-1,0-1 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,-1-5 0,1-10-155,0 17-133,0-8 353,-2 4-3578,-10 4-2941</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 19564,'0'82'0,"64"-82"0,-64-82 0,-64 82 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2247,7 +3572,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:31.221"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:15:08.933"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2255,7 +3580,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">52 19 8036,'0'0'11866,"-3"-18"-9462,2 19-2402,-1-1-1,1 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0 2 1,1 44-1777,-1-48 1757,0 1 1,1-1 0,-1 1-1,0 0 1,1-1-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1-1,0-1 1,-1 1 0,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,0 0 1,1 1 44,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1-1 0,0-1 0,0 1 70,-1 1 1,1-1 0,-1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,0-2 0,-2 2-15,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,-5 1 0,-4-1-226,11 2 67,1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 1,1 2-1,5-2-74,0 0 0,0-1 0,1 0 0,-1 0 1,0 0-1,0-1 0,1-1 0,10 0 0,-17 0 186,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-2 0,0 1 63,-1 0-1,1-1 1,0 1-1,0 0 0,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 0,0 0 1,-2-3-1,0 4-112,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-6 1 0,-9 1-3852,2 3-5268</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 112 3746,'0'0'14764,"17"-9"-9610,-17 8-5150,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,0 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 1 1,-1-1-6,1 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 2 0,0-2-27,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1 0 0,1-1-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,2-1 0,0 0-40,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,3-4 0,-3 2 84,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,-1 1 0,1-1 0,-1 1 1,0 0-1,0-6 0,-4 9 136,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,-7 3 0,9 42-202,3-35-44,4-10-19,1 0 0,-1 0 0,0 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,4-2 1,-7 2 95,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0-1 0,-1 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-3 1,1 0 77,-1 0 1,-1 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,-3-8 1,3 12-32,0-1 1,-1 1 0,1 0 0,0 0 0,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1-1,-31-1-4555,11 2-5991</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2275,7 +3600,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:45.447"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:15:09.870"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2283,7 +3608,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 23754,'0'60'0,"120"-60"0,-120-60 0,-120 60 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">45 25 23129,'-1'-1'0,"1"0"0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2303,7 +3628,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:21:48.273"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:15:20.815"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2311,7 +3636,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 0 5266,'0'0'14781,"-16"5"-14459,13-1-338,1 1-1,0 0 1,1-1 0,-1 1-1,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,2 6 1,-1-11 22,0 0-1,1 0 1,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 1 0,0 0 0,1 0-1,-1 0 1,0-1 0,0 1-1,0 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,1 0 0,-1-1 0,0 1-1,0-1 1,0 0 24,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,-1-1 1,0 1-1,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,-1 0 0,0-2 1,-2 2 57,1 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,-1 0-1,1-1 0,0 2 1,-5-1-1,-8 0-74,14 0-9,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 0,-1 3 0,0-1-13,1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 1 1,1-1 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0-1,2 5 1,-1-7 7,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 0 0,-1 0-1,2 0 1,44 0-28,-35 0 16,-10 0 17,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,-1 1 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,-1-3 0,1 4 8,-1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,-1 0 0,-41-2 347,43 2-343,1 0-18,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 27-40,1-19-31,0-8 37,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,1 0 0,-1 0 1,0-1-1,1 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,2 0 1,40-3-357,-42 2 392,1 0 1,-1 0 0,1-1-1,-1 1 1,0 0-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 1-1,0-1 1,-1 0 0,1 0-1,0-2 1,0 3 32,-1 1 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-2-1 0,-53-1 464,30 3-3040,18-1-4858</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">65 89 8036,'0'0'12760,"8"0"-10179,-6 0-2579,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 0 1,1-1 0,-2-76 531,-7 77-468,1 0 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,0 0 0,-6 2 0,10-1-65,0 0 1,1-1-1,-1 1 1,0 1-1,0-1 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,0 4-1,-3 43-81,4-43 55,26-5-151,-25-1 174,1 0 0,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1-1-1,0 1 1,1-3 0,0 1 13,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1-5 0,-2 8-6,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0-1,0 1 1,-2-1-1,1 0-4,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 2 0,2 2-4,1-1 1,-1 1-1,1-1 0,0 1 1,0 0-1,1 0 1,-1-1-1,1 1 0,0 0 1,1 6-1,0 5-78,0-16 12,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,2-3 0,-2-2-2158</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2331,7 +3656,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T12:23:22.346"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:17:31.843"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2339,7 +3664,176 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 23 9108,'0'0'11413,"0"0"-11474,2 0 120,-1 0 277,-5-18 832,3 18-1174,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 2 1,-1-3-13,0 1 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 1,1 0-1,-1-5-82,0 5 135,0 0 1,0 1-1,1-1 1,-1 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 43-126,0-41 53,1-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,0-1 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 0,4-1 1,-3 1 27,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 1-1,-1-3 1,1 2 53,-1 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 2 0,0-1 0,-3-2-1,0 2 69,0 0 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 1-1,-8 0 1,7 0-90,-5 0 103,9 0-125,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 1 1,0-1-25,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,2 1-37,0-1 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 0 0,4 0 1,5 0 171,-12 0-99,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-2-1 0,1 1 7,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,1 0 1,-1 0-1,0-1 1,0 1-1,-2 1 1,-38 0 326,28-1-284,13 1-66,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 2-1,0-2 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,2 1 0,5-1-71,35-4-86,-42 3 166,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-2 0 0,1-1 8,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 0,-2 0 1,-37 0 227,19 1-128,21-1-155,16 0 14,7 0-2772</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17 0 17212,'-17'36'0,"53"-19"0,-18-53 0,-55 19 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:19:09.379"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">119 19 6339,'0'0'10469,"-3"-3"-9805,0 1-626,1 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,-1 1 1,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,-3 0 0,-28-3-45,34 3-1,0 0 1,1 1-1,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1-9,1 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,1-1-1,-1 1 1,0-1 0,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0 0,-1 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,2 0 1,-2 0 30,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1 0 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 0,1-7 77,-43 9 72,42 0-167,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,-1 1-1,1-1 1,0 1 0,1-1 0,-1 1-1,0-1 1,1 3 0,-1 2-139,6-5 111,0 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,10-1 0,-10 1 24,5 1 29,17-2 101,-28 1-119,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,-2-1-59,-1 1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0 0,0 0-1,0 1 1,-5 0-1,2-1-991,-4 0-2128</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:20:54.675"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">39 51 5987,'0'0'11349,"0"-6"-10631,0-27 1080,-1 33-1797,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 1-1,0-1 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 1 1,2 9-449,0-18 766,-2 7-291,0 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 1 0,0-1-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,1 1 1,0-1-1,-1 1 1,0 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1 0,-1 0-1,0 0 1,0-1 0,-1 2-41,0 0 0,1 0 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 3-1,-1-3 5,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,2 1 0,0-1 3,-1 0 1,1 0-1,0-1 1,-1 1 0,1-1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 0 1,4-2-1,-6 2 52,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0-3 1,-1 4-32,0 0 0,1 0 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-2 0-1,-12 2-2984,7 3-2081</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:20:53.523"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">118 14 2177,'0'0'8222,"-8"0"-7683,-18 0-240,7-1 4478,19 1-4726,0 0 1,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,0 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,-1-1-50,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-3 2 0,2 0-27,1 1 0,1-1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,1 4 1,-1 6-81,0-12 54,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,1 1 0,23 1-817,-15-3 899,-6-21 867,-4 17-616,0 22-635,0-17 129,5-5 238,-4 4 6,-1-1 0,0 1 1,1 0-1,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0-32 1848,0 33-2218</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1965.11">45 74 3378,'0'0'7704,"-32"1"-5356,31-1-2348,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,0 0 1,-1-1-1,1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,1 1 0,-1-1 4,1-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,1 1 1,-1-1-1,0 1 0,0-1 1,0 0-1,0 0 1,1 1-1,-1-1 0,0 0 1,2 0-1,-3 0 11,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,0-1 0,1 1 1,-1 0-1,1-1 0,-1 1 1,0 0-1,0-1 0,1 1 0,-1-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,-1-1 0,0 0 75,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,1-1 0,-4 2-3813</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:21:08.799"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17 38 224,'0'0'9725,"-2"3"-10923,1-3 1069,0 1 0,0-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,0 0 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 2 0,2-3 208,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,6 0 533,0 0 1,0 0 0,0-1 0,-1 0 0,12-5 0,-17 7-551,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 1,0 1-1,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,-1 0 0,-24-12 989,24 12-1024,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,-1 1 0,0 1-62,1 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0 0,1 0-1,-1 1 1,1-1 0,0 0-1,0 6 1,3-8-67,0 0 0,0 0 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0-1 0,1 0 0,5-1 0,-5 0 40,4 2 41,0-1 1,0-1 0,0 0 0,0 0-1,0 0 1,8-4 0,-14 5 29,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1-1 1,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0-3-1,0 4 32,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,-1 0 0,1 0 0,-3 0 0,-43 3 1040,45 0-1156,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1-1 1,1 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,0 1 0,2 5 0,1-7-108,1 0 0,-1-1 1,1 1-1,0-1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,8-2 0,-10 2 130,0 0-1,0-1 0,1 1 0,-1-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,2-4 1,-5 5 136,0 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,0-1 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-2-1 0,-1-1 31,0 1-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 1 0,-1-1 0,1 1 1,-5 0-1,-4 0-31,1 1 0,-1 0 1,1 0-1,0 2 0,-13 3 1,5 6-35,28-6-1028,33-3-2461,-2-6-2945</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:21:09.769"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">24 19 18052,'1'0'0,"-1"-1"0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:21:11.418"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 106 10565,'0'0'7518,"0"-6"-6774,0 4-639,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,-3 0 0,6 30-343,1-29 234,1 1 1,-1-1-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1-1 0,1 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,5-1 0,-6 1 11,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 1-1,0-1 1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1-1,0 1 1,2-3 0,-2 2 21,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-2-2 0,-2 2 39,0 0 0,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,0 1 0,-1-1-1,-10 2 1,17-1-70,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 3 0,0 37-20,0-30 19,0 5-19,-1-9 17,1-1 0,0 0 0,0 1-1,1-1 1,-1 0 0,3 8 0,-3-12-5,1 0 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 1 1,0-1-1,1 1 0,-1-1 1,1 0-1,-1 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,2-1 1,-1 2 10,0-1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 1,2-3-1,-1-4 58,1 0 1,-2 0-1,1 1 1,-1-1 0,0-10-1,-1 0 280,1 17-321,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 1 1,1 0 0,-1-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-2 1 0,-5-1-11,7 6-60,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1 9 0,-1-10-197,0 10-1266,0-8-2104</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2371,6 +3865,286 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:21:12.211"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 66 8692,'0'0'7035,"-1"0"-7019,1-1-1,-1 1 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 1,-1 1-1,0 4-21,0 0 0,-1 1 1,2-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 1,1 0-1,0 0 0,0 0 0,1 6 0,-1 0-118,25-13-690,-19-1 822,0 0 0,0 0 0,-1 0 1,1-1-1,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,1 0 1,2-6-1,-3 5 529,0-1 1,0 1 0,-1 0-1,1-1 1,-1 0 0,-1 1 0,1-1-1,-1 0 1,0-10 0,-2 16-471,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 1,-3 0-1,-2-1 16,-5 0-110,-24 3-325,34-2 181,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 0,0-1 0,1 2 0,-1 10-4087</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:21:13.056"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49 37 9524,'0'0'8655,"0"38"-8564,1-37-102,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,3 0 0,29 1-247,-21-1 328,-10-1-57,0-1 0,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 1,0-3-1,0 0 202,1 1-1,-1 0 1,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,-2-5 0,1 6-111,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-6-1 0,-41 0 352,31 2-304,17-1-157,0 0 1,0 1 0,1-1-1,-1 1 1,0-1-1,0 1 1,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 2 1,1 35-129,-1-28 99,1-8 25,-1-1 0,1 1 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,0-1 0,0 0 0,-1 1-1,1-1 1,0 0 0,3 0 0,-1 1 12,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,6-4 0,-9 5 32,0 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,1 1 1,0-1 0,-1 0 0,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,-2 0 0,0 0-1453</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:21:13.962"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 1 2177,'0'0'16458,"-2"0"-16196,0 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-2 1 0,0 2-288,-1 1-1,1-1 1,0 1 0,0 0 0,1 0-1,0 0 1,-1 0 0,2 1-1,-1 0 1,1-1 0,-1 1 0,2 0-1,-3 9 1,4-15-105,1 0 133,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1-2 1,1-37 491,-3 22-3,0 18-522,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0 0,0 1-1,-7 13-1961,2-2-1833</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:21:15.054"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 154 7491,'0'0'10715,"0"-9"-10256,0-20-261,0 7 3813,23 22-4181,-13 0 140,-6 0 23,1 1 0,0-1-1,0-1 1,0 1 0,0-1 0,0 0 0,-1 0 0,9-3 0,-11 3 12,-1 0 0,1 0 1,-1-1-1,1 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1-4 0,1 4 26,1 1-1,-1-1 1,0 1-1,0-1 1,0 1-1,0-1 0,-1 1 1,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1-1,1-1 0,-1 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-2-2-1,-1 2 27,1 0 0,-1 0 0,0 0 0,0 1 0,0-1-1,0 1 1,0 0 0,-5 1 0,4-1-68,3-1 12,0 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 1 1,0-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,-1 1 0,1 2-5,0 0 0,0-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0 0 0,1 6 0,-1 4 1,0-13 3,0 1 1,0-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 1 1,2 0-1,5 0-4,-1 0 1,1 0-1,-1-1 0,15-1 1,-3 0 10,-21-38 309,-1 36-291,0 0 0,0 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1 0 0,-1 0 1,1 0-1,-1 1 0,0-1 0,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,-3 1 0,6 2-38,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,0-1-1,0 1 1,0 0-1,2 3 1,0-5 8,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 1,6-3-1,-6 3 25,0-1-1,0 1 1,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0-4 0,-2 4-28,1 1 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 0,0-1 1,-4 2-1,5 3-2091</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:26:42.093"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">51 47 2529,'0'0'16845,"2"36"-16944,0-35 142,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,0-4 0,-1 6 8,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,-2 1 0,-37 1 149,39-2-198,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1 1-1,-1-1 1,1 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0 2 1,-4 48-87,5-51 80,1 0 3,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,31 0 33,-27 0-19,-5 0-9,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,-1-1 1,1 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 0,1-1 1,-3-34 496,2 35-480,-1 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,0 1 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,-3 0 1,-35-1 230,28 1-210,10 3-53,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,0 0 0,0 2 1,50-1-378,-48-4 385,0 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0-1 0,-1 1 1,1-1-1,4-2 0,-7 4 12,0 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 1-1,0-2-9,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 1,-1-13-1355,1-4-3556</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:27:35.676"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 78 5106,'0'0'14052,"47"-6"-13332,-46 4-712,-1 1 0,1 0 0,0-1-1,-1 1 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-3 0,0 3 69,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-2 0 0,2 22-122,0-20 75,0-11 0,0 6-24,0 1 11,1 0-1,-1 1 1,0-1 0,0 0-1,0 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1 0,0 1-1,0 0 1,0-1 0,1 1-1,-1 0 1,-1-1-1,0-1 1,-1 2 33,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0 0 1,0-1-1,0 1 0,0 1 0,-3-1 0,-10 0 0,14 1-46,1-1-1,-1 1 0,1-1 0,-1 1 0,1 0 1,0 0-1,-1-1 0,1 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,0 1 0,-1-1 0,1 3 1,-1 0-8,0 0 0,0 1 1,1-1-1,0 0 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 1 1,2 4-1,-1-8 2,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0-1-1,0 1 0,0-1 1,1 0-1,-1 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,2 0 0,36-1-58,-27 1 3,-9 0 39,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 1,5-2-1,-6 1 20,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 0,-1-4 1,1 3 5,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-3 0 0,-1-1 19,-1 1 0,1 0 0,-1 0 0,1 1 0,-1 0 0,1 0 0,-12 2 0,16-1-27,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 2 0,-4 52-38,4-52 36,0-2 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,2 2 0,29 0-44,-19-3 22,-5 0 3,1-1 0,-1 1 0,0-1 0,0-1 0,0 0 0,0 0 0,0 0 0,8-5 0,-14 7 25,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,-1-2 0,1 2 11,0 0 1,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1 0 0,-2 0 0,-57 0 260,42 1-164,19-1-107,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 2 1,-1 38-40,2-30 19,1-10-1,-1 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,1 0 0,0-1 1,0 1-1,-1-1 1,1 1-1,0 0 0,0-1 1,-1 1-1,1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,2-1 1,2 1-702,-2 0-2258</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:30:10.047"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">83 57 3025,'0'0'13807,"-27"2"-10142,24 2-3550,-4 10-199,7-14 80,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 0,0-1 1,1 0-1,-1 1 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 1338,-2 0-1333,1 1 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,0 0 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 0 1,13 0-45,13-1-270,-27 1 317,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 1 0,-1-2 0,1 1 14,-1-1 1,0 1-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,-1 1 1,1-1-1,0 1 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-3 0 1,-49-1 576,41 2-360,9-1-200,2 0-62,1 1-55,0 0 64,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,28 2-493,-16-4 465,-13-1 59,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,0-1 0,0 1 1,0 0-1,0-3 0,1 2 7,-1 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-2-3 0,-4 2 25,1 0 0,-1 0-1,1 1 1,-1 0 0,1 0-1,-1 0 1,0 1-1,0 0 1,1 0 0,-10 2-1,15-1-48,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 3-1,3 29-169,-2-32 146,0 1-1,0-1 0,0 0 1,0 1-1,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1-1 0,1 1 1,0-1-1,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,2-1 1,-2 1 21,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-1 0-1,1-1 0,0 0 1,1-1-1,-2-3 75,1 0-1,-1 0 0,0 0 0,0 0 0,-1-12 0,1 17-63,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 0 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,-2 0 0,-5 1-3019,-1 0-5757</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:30:11.124"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">73 0 6307,'0'0'8150,"-10"1"-7683,-27 5-245,36-6-221,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 1,0 0-1,1 1 0,-1-1-2,0 1 0,0-1 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 1 0,47 2-64,-38-4 2,-11-4 855,0 2-650,1 1 1,-1-1-1,0 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,0 0 1,1-1-1,-2 0 0,-10 0 220,0 2 1,0-1-1,-23 4 0,34-2-364,0 0 0,0 1 1,0 0-1,0-1 0,0 1 1,1-1-1,-1 1 0,0 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 2-1,0-2-32,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 0 0,0 1 0,1 0 0,30-1-115,-31-1 157,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 1,0 1-1,-1-1 1,3-1-1,-3-61-438,-3 61-2328,-11 2-3658</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:30:11.706"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17 7 7523,'0'0'10725,"-16"-6"-10661</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:33:24.561"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">168 8 8340,'0'0'8014,"-4"0"-4635,-16 6-2929,17-3-521,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 0 1,0 1-1,0-1 0,0 8 0,1-11 72,0-1 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 1,0-1-1,0 0 0,0 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,0 0-1,0-2 43,0 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1-4 1,1 7-21,-1-1 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,0 0-1,1-1 0,-1 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 1 1,-1 0-1,5 49-462,-2-49 430,1 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1-3-1,0 4 23,-1-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,-1 0-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-3-2-1,0 2 39,0-1 1,-1 1-1,1 0 1,-1 1-1,0-1 0,1 1 1,-1 0-1,-8 1 1,-4-1-20,16 1-40,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 0,-1 1 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 2-1,0 43-395,0-36 278,1-9 98,0-1 0,0 1 0,0 0 0,0 0 0,1-1-1,-1 1 1,0-1 0,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,2-1 0,-1-54 646,-2 55-598,1 1-1,0-1 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,0 0 0,1-1-1,-1 1 1,1 0 0,-1 0-1,0-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-2 0-1,-29 0 191,22 0-127,4 0-61,-1 0-1,0 0 1,1 0 0,-1 1-1,1-1 1,-1 2-1,-9 2 1,13-3-28,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,1 0 0,-1 3 0,0-2-18,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,3 4 0,-1-5-5,0-1 0,-1 1 0,1-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,5-1 0,5 1-8,-9 1 13,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 1,5-2-1,-8 2 31,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0-2 0,0 2 13,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,-2-1-1,0 1 3,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,0 0 0,-5 1 0,3 0-20,0 0-1,0 0 0,0 0 1,0 1-1,0 0 0,0 0 1,1 0-1,-1 0 0,1 1 1,-1 0-1,1 0 1,0 0-1,0 1 0,-4 4 1,6-6-43,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,-1 1 0,1 0 0,0-1 1,0 1-1,0-1 0,0 1 1,1-1-1,0 5 0,0-5-16,0-1-1,0 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,3-1 0,2 1 34,-1-1 0,1 0 0,-1 0-1,0 0 1,0-1 0,0 0 0,12-6-1,-15 7 47,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1-3 0,-2 5-2,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-2-1 14,-41-1-545,-20 1-2373</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -2396,6 +4170,34 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">205 25 9028,'0'0'12662,"-12"0"-9447,-10 1-2815,21 2-405,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,1 5 0,-1-6-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,0 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,1 1-1,0-1-8,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,3-3 0,-3 1 28,0 0 1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1-5 0,1-7 16,0 14-23,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 0 1,0 0 0,1 1 0,-1-1-1,0 0 1,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 1-1,0 0 1,1-1 0,-1 1 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,-41 0 216,31 0-212,7 0-11,1 0-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 0-1,0 0 1,-1 1 0,1-1-1,0 1 1,-7 4-1,8-4-2,1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1-1-1,-1 4 1,1 0-10,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,1-1-1,0 1 1,2 7-1,-2-11 9,0 0 0,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,1-1 0,0 1 0,0-1-1,-1 0 1,1 0 0,0 0 0,0 1 0,0-2-1,0 1 1,0 0 0,0 0 0,1-1 0,-1 1 0,0-1-1,0 0 1,0 1 0,3-1 0,9 1-49,0 0 1,-1-1-1,25-2 0,-37 2 52,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-2 0,-10-34 73,7 33-70,0 0 1,-1 0-1,1 0 0,-1 1 0,1 0 0,-1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1 0 0,1 0 0,-1 0 0,-6-1 0,2 1 15,0 0 0,0 0-1,0 1 1,0 1-1,0-1 1,0 1-1,-10 2 1,18-2-21,-1 1 0,1 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,0 2 0,-1 44-53,1-36 35,1-9-9,-1 0-1,0 0 1,1 1-1,-1-1 1,1 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,1 0 1,-1 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,4 0 1,1 1-83,0-1 0,0 0 0,1 0-1,-1-1 1,0 0 0,0 0 0,0-1 0,14-2 0,-20 2 113,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,-1-2 0,1 1 11,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,-2-3 0,-4 2-170,0 0 0,0 1 0,1 0 1,-2 0-1,1 1 0,0 0 0,0 1 0,0-1 0,-10 2 0,6-1-933,-33 0-6225</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:34:08.337"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">43 64 2177,'0'0'6192,"-13"-7"-653,16 7-1790,14 0-3645,9 1-457,-25-2 383,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,0-1 1,-6-4 978,3 25-895,4-15-218,0 0 0,0 1 1,1-1-1,-1 0 0,1 0 0,0 0 0,2 5 0,-3-8 94,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 1,0 0-1,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,1-1 1,-1 2 32,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,0 1 0,1 0 0,-1-3 0,0 4 0,0-1-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,0 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,1 0 1,-3-1 0,-80 1 246,82 0-267,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,-1 0-1,1-1 1,1 1-1,-1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 2-1,0-2-7,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,0-1-1,0 1 0,-1 0 0,1-1 0,0 1 0,1 0 0,125 0-15,-126-1 22,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0-1-1,0-34 81,-1 24-59,1 10-18,-1 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-2 0 0,-6 0 11,1-1 0,0 1 0,-1 1-1,-14 2 1,21-2-16,-1 0-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 1 1,0-1-1,0 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1 3-1,-1 1-29,1 0 0,1 1 0,-1-1-1,1 0 1,0 1 0,1 10 0,0-17 6,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,2 0 1,50 1-345,-44-1 298,-5 0 61,-1 1 0,1-1 0,-1 0 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 0,0-1 0,5-3 1,-6 3 14,0 0 0,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1-4 0,1 4 11,0 0 0,0 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,-1 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,0-1 0,0 2 0,-2-3-1,0 1 36,-1 1-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1 1 0,1-1 1,-1 1-1,0 1 0,1-1 0,-7 0 1,-57 1 110,67 3-192,0 1 0,-1-1 0,1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,1-1 0,2 6 0,3-5-52,0-1 1,1-1 0,-1 1 0,1-1 0,0-1 0,-1 1 0,1-1 0,0-1 0,0 1 0,0-1 0,-1-1 0,16-2 0,-22 3 90,0 0 1,0 0 0,-1-1 0,1 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,-1 1-1,1-1 1,0 0 0,0 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1-1-1,1 0 48,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-4-2 0,-50-10-353,50 11-2228</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2856,271 +4658,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7554542-CFDC-4114-ADF7-E1610AA301DD}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="A21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ515\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B60BF-2D28-42C5-99E7-4F1E3A102329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391F9DB-74D1-409D-8558-503113460835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>DigitalOut</t>
   </si>
   <si>
-    <t>addr1:addr0</t>
-  </si>
-  <si>
     <t>PC0:PC3</t>
   </si>
   <si>
@@ -179,12 +176,6 @@
     <t>2-bit address</t>
   </si>
   <si>
-    <t>PD1:PD0</t>
-  </si>
-  <si>
-    <t>PG2*</t>
-  </si>
-  <si>
     <t>Maintenance LED</t>
   </si>
   <si>
@@ -270,6 +261,15 @@
   </si>
   <si>
     <t>SD Card:</t>
+  </si>
+  <si>
+    <t>PC8*</t>
+  </si>
+  <si>
+    <t>addr[3:0]</t>
+  </si>
+  <si>
+    <t>PD1:PD0:PG3:PG2</t>
   </si>
 </sst>
 </file>
@@ -3207,6 +3207,136 @@
             <a:xfrm>
               <a:off x="14059005" y="4845060"/>
               <a:ext cx="71640" cy="61560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448110</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>505350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48840</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1596BB-D31C-846E-6C4A-C9C5756C492F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14106960" y="3614145"/>
+            <a:ext cx="57240" cy="63720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1596BB-D31C-846E-6C4A-C9C5756C492F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14100840" y="3608025"/>
+              <a:ext cx="69480" cy="75960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>418230</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>445230</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139140</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B9B800-20C2-A48D-5767-A1FC3BFF850D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14077080" y="5073225"/>
+            <a:ext cx="27000" cy="28440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B9B800-20C2-A48D-5767-A1FC3BFF850D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14070960" y="5067105"/>
+              <a:ext cx="39240" cy="40680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4201,6 +4331,62 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:54:09.006"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">158 58 2049,'0'0'10157,"-9"-1"-8551,-29-5-344,35 6-1184,-1 0 1,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,1 0 0,0 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,1 0 0,-1 0 0,-1 3 0,-6 8 158,9-14-240,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,1-1 0,-1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,35 0 388,-29 0-256,-6-3-35,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1-3 0,1 3 124,0 1-171,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,-2-2 0,-28-2 434,22 4-505,8 0-42,3 49-207,0-48 269,0 0-1,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,0 0 0,0 1 1,0-2-1,0 1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 0,0 0 1,-1 1-1,1-1 1,0 0-1,2-2 1,-2 0 23,0 1 0,-1 0 0,1-1 0,-1 0 1,1 1-1,-1-1 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,-1-4 0,2 5 31,-1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,-1-2 0,-1 2-24,1 1-1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 1,1 0-1,-7 0 0,7 0-57,1 0 29,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 2 0,1 1-6,0 0 0,0-1 0,0 1 0,1 0 0,0 0 1,-1-1-1,1 1 0,1 4 0,-1 5-7,0-11 10,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 0 0,4 3 0,-1-2-33,0 0 0,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 1,1-1-1,-1 1 1,1-1-1,5 0 0,-9-1 50,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,-1-3 0,1 2 1,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,-1 1 0,-1-2 0,2 1-13,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 1 0,0 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0-1,0 2 1,-1 5-32,1-1 0,0 0-1,0 1 1,1-1 0,0 0 0,1 10 0,0 4-144,0-19 136,0-1 1,0 0-1,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,3-1-1,-2 1 48,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 1 0,0-2 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,1-3 0,-2-1 95,0 0-1,0 0 1,0 0 0,-1 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,-1-9 1,1 12-82,1 0 1,-1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 1 1,0 0 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1-1,1 0 1,-3 1 0,4 41-2797,16-46 3206,-16 4-396,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,-9-4-755,21 6-1822,7 0-2930</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:54:18.954"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 78 24062,'18'-24'0,"10"33"0,-45-33 0,34 0 0,-45 33 0,10-33 0,18 54 0,-28-21 0,56 0 0,-28 21 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -4661,13 +4847,13 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4773,11 +4959,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -4802,7 +4988,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -4816,7 +5002,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>18</v>
@@ -4824,7 +5010,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -4840,7 +5026,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4852,7 +5038,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4864,7 +5050,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,11 +5058,11 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,7 +5070,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
@@ -4897,18 +5083,18 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
@@ -4916,7 +5102,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>33</v>
@@ -4928,10 +5114,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="7" t="s">
@@ -4940,7 +5126,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
@@ -4952,7 +5138,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -4964,13 +5150,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>17</v>
@@ -4978,73 +5164,73 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
         <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">

--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ515\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391F9DB-74D1-409D-8558-503113460835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C31C40-7514-4E14-BF06-3F922EB86C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -170,12 +170,6 @@
     <t>PC0:PC3</t>
   </si>
   <si>
-    <t>4x1 mux</t>
-  </si>
-  <si>
-    <t>2-bit address</t>
-  </si>
-  <si>
     <t>Maintenance LED</t>
   </si>
   <si>
@@ -270,6 +264,9 @@
   </si>
   <si>
     <t>PD1:PD0:PG3:PG2</t>
+  </si>
+  <si>
+    <t>4-bit address</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3227,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>48840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -3250,7 +3247,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -3295,8 +3292,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>139140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -3315,7 +3312,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -4847,7 +4844,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,11 +4956,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4974,7 +4971,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -4988,7 +4985,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -5002,7 +4999,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>18</v>
@@ -5010,7 +5007,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -5026,7 +5023,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,7 +5035,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5050,7 +5047,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5058,11 +5055,11 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,7 +5067,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
@@ -5082,19 +5079,17 @@
         <v>31</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
@@ -5102,7 +5097,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>33</v>
@@ -5114,10 +5109,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="7" t="s">
@@ -5126,7 +5121,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
@@ -5138,7 +5133,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -5150,13 +5145,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>17</v>
@@ -5164,73 +5159,73 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">

--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ515\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PROJ515\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C31C40-7514-4E14-BF06-3F922EB86C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49074808-6BC8-4072-84FE-75465C16317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -167,9 +167,6 @@
     <t>DigitalOut</t>
   </si>
   <si>
-    <t>PC0:PC3</t>
-  </si>
-  <si>
     <t>Maintenance LED</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>Light Level Monitor</t>
   </si>
   <si>
-    <t>mic1:mic0</t>
-  </si>
-  <si>
-    <t>2 microphones</t>
-  </si>
-  <si>
     <t>Interrupts:</t>
   </si>
   <si>
@@ -257,9 +248,6 @@
     <t>SD Card:</t>
   </si>
   <si>
-    <t>PC8*</t>
-  </si>
-  <si>
     <t>addr[3:0]</t>
   </si>
   <si>
@@ -267,13 +255,61 @@
   </si>
   <si>
     <t>4-bit address</t>
+  </si>
+  <si>
+    <t>SPI to PI:</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>SPI4</t>
+  </si>
+  <si>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC8*    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PB2</t>
+    </r>
+  </si>
+  <si>
+    <t>3 microphones</t>
+  </si>
+  <si>
+    <t>PC0:PF7:PC3</t>
+  </si>
+  <si>
+    <t>micF 240: micF 6k: micR</t>
+  </si>
+  <si>
+    <t>Accleromerer temp</t>
+  </si>
+  <si>
+    <t>PF4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +329,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -473,6 +516,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4841,15 +4887,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7554542-CFDC-4114-ADF7-E1610AA301DD}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
@@ -4884,32 +4930,30 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" t="s">
-        <v>42</v>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
@@ -4918,10 +4962,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
@@ -4930,306 +4974,374 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>67</v>
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="11" t="s">
-        <v>66</v>
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="13" t="s">
-        <v>17</v>
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="7" t="s">
-        <v>42</v>
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="12" t="s">
-        <v>17</v>
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="12" t="s">
-        <v>17</v>
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" t="s">
-        <v>64</v>
+      <c r="A27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" t="s">
-        <v>64</v>
+      <c r="A28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
+      <c r="A29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
+      <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" t="s">
-        <v>64</v>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PROJ515\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ515\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49074808-6BC8-4072-84FE-75465C16317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647EDA5-44C7-43DE-9459-2113E4735827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>PF2*</t>
-  </si>
-  <si>
-    <t>PH1*</t>
-  </si>
-  <si>
-    <t>PH0*</t>
   </si>
   <si>
     <t>PG0*</t>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>PF4</t>
+  </si>
+  <si>
+    <t>PF1*</t>
+  </si>
+  <si>
+    <t>PF0*</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -516,9 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3380,6 +3378,266 @@
             <a:xfrm>
               <a:off x="14070960" y="5067105"/>
               <a:ext cx="39240" cy="40680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>491160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>164295</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F4043D-5D3B-E20D-1CCB-6B764DFA548A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15988335" y="6557940"/>
+            <a:ext cx="87480" cy="92880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F4043D-5D3B-E20D-1CCB-6B764DFA548A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15982215" y="6551820"/>
+              <a:ext cx="99720" cy="105120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59940</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103740</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80CDC3B-0534-F6A7-376E-63015BD8DBC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7472597" y="7333826"/>
+            <a:ext cx="163800" cy="19800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80CDC3B-0534-F6A7-376E-63015BD8DBC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7466477" y="7327706"/>
+              <a:ext cx="176040" cy="32040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599940</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64586C85-EE89-1505-6400-B8F0A98901DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7839077" y="7230866"/>
+            <a:ext cx="337320" cy="116280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64586C85-EE89-1505-6400-B8F0A98901DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7832964" y="7224746"/>
+              <a:ext cx="349547" cy="128520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502140</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="49" name="Ink 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB164D63-B2DC-5C6B-70D0-46BE39301EE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7468997" y="7452266"/>
+            <a:ext cx="745920" cy="118080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="49" name="Ink 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB164D63-B2DC-5C6B-70D0-46BE39301EE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7462877" y="7446127"/>
+              <a:ext cx="758160" cy="130357"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4430,6 +4688,129 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-11T14:45:39.028"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 257 3474,'0'0'7822,"30"-15"-8633,-19-1 917,0-1 0,-1-1 1,0 1-1,-2-2 0,9-23 0,-22 32 5157,-10-1-3510,-18-1-519,33 12-1448,-1 1-307,1 1 465,0 0-1,-1-1 1,1 1 0,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,-1-1 1,3 1-1,1 1-122,0-1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0-1-1,9-1 1,-13 1 206,-1 0 0,1 0 1,0 0-1,0-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1 0 1,0-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,-1-3 0,0-34 943,1 28-676,0 9-237,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,-2 0 1,-33-2 779,18 4-804,16-1-31,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 1 1,0-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 2-1,0 6-12,0-1 0,0 1 1,1 0-1,0-1 0,1 17 0,0-24 6,0-1 3,0 1-1,1-1 0,-1 0 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1-1 1,2 0-1,1 1 2,0-1-1,1 1 1,-1-1 0,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,0 0 0,-1 0-1,5-3 1,-4 0 78,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-8 0,-2 11 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0-1,0 0 1,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,0 0 1,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-3 0 0,-3-2 77,0 1-1,0 0 1,0 0-1,0 1 1,-1 0-1,-12 0 1,19 3-159,0-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,1 4-1,-1-3-2,0 11 11,2 14-115,-2-27 98,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 0 0,0 1 1,-1-1-1,1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,0-1 0,1-1 1,6 3-1,1-1-1,-1-1 1,0 0 0,1 0 0,-1-1 0,0 0-1,0 0 1,1 0 0,-1-1 0,0-1 0,0 0-1,-1 0 1,1 0 0,-1-1 0,1 0 0,-1 0-1,0-1 1,-1 0 0,10-8 0,-15 13 16,0-1-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0 0-1,0-1 1,0-1 0,-1 2 4,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,1 1 1,0 0-1,0-1 1,-2 1 0,-9-2 67,0 0 0,-1 1 1,-19 1-1,25 0-55,-4-1-18,-21 1 95,32 0-110,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 1 1,1-1-1,-1 0 1,0 0-1,1 1 0,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 0 0,0 1 1,-1 0-1,1-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 2 1,6 7-1988,24 3-2325</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-11T14:52:33.949"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">23 14 6035,'0'0'17061,"-5"-3"-16618,-4-7-215,25 10 42,55 13 204,-27-5-368,27-3 195,97-6 0,-105-1 791,-190-1-660,44 0-273,-123 12-1,180-4-56,39-3-105,53-2-63,-55 0 89,354 2-23,-544 17 144,78-19-3831,88 0-2518</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-11T14:52:37.537"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 86 12326,'0'0'7184,"0"-4"-6808,-6 147 252,1-68-2083,3-56-575,2-15 581,0-6-330,-1-25 2758,1 0-271,0 0 1,2 0-1,8-45 1,-9 65-687,1 0-1,0 0 1,0 0 0,1 1 0,0-1 0,0 1 0,1-1 0,-1 1-1,1 1 1,1-1 0,-1 0 0,1 1 0,0 0 0,0 0 0,0 0 0,1 1-1,0 0 1,0 0 0,8-4 0,-11 7-22,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,0 0 1,6 1-1,-8 0 5,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 3-1,1-1 43,-1 0 1,0 1-1,0-1 0,0 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-2 0-1,1-1 0,0 1 0,-1-1 1,0 1-1,-3 3 0,0-2 66,-1 0 1,0 0-1,0-1 0,0 1 0,0-1 1,-1-1-1,1 0 0,-1 0 0,-10 3 1,-3-3-20,15-6-2495,6-12-2688</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="246.6">299 86 13158,'0'0'4802,"-3"90"-4322,-3-61-368,-2 0-63,3-3-17,-1-4-32,2-8-513,4-7-1616</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="477.06">288 59 11829,'0'0'8292,"65"-17"-8196,-38 17-32,-1 0-48,-1 0 0,-2 2-16,-2 4-336,-8 0-2449,-7 0-4627</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.2">292 188 13654,'0'0'8068,"55"-5"-7924,-36 1-112,2 4-32,4 0-752,-2 0-3538</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1060.79">559 188 12118,'0'0'9044,"5"0"-8898,152 0 1052,-179 10-3383,5-10-645,3 0-1679</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1554.07">937 1 13494,'0'0'9605,"0"96"-9061,-2-50-368,2-5-128,0-3-48,-2-10-384,-9-11-12390</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-11T14:52:32.914"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 326 11653,'0'0'15031,"28"0"-14583,446 0 1631,-473 0-2077,-8 0 57,-439 1-70,443-1 12,0 0-1,0-1 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,-3-3 1,3 2 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,0-1 1,-6 0-1,8 1-17,12 0-59,410 5-10,-481-4-9,-17-9 72,-111 1-1,188 7-36,-1-1 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 1 0,0-3 0,18-28-3521,8-6-3995</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2027.82">902 85 12982,'0'0'1785,"0"13"-1553,1 15-304,0 66 418,-1-86-491,0-1 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,-5 8 0,6-22 247,1 0 0,-1 0 0,1 0-1,1-1 1,-1 1 0,2-11 0,-2-3 93,2 0 0,0 0 0,1 1 1,11-41-1,-12 55-167,1 0 0,0 1 0,1-1-1,-1 1 1,1 0 0,0 0 0,0 0 0,1 0 0,0 1-1,0-1 1,0 1 0,0 0 0,0 0 0,1 0 0,0 1-1,0-1 1,0 1 0,0 0 0,0 1 0,1-1 0,-1 1-1,9-2 1,-12 3-27,1 1-1,-1-1 1,1 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,1 2-1,0 2 2,0 0-1,0 0 1,-1 1-1,1-1 1,-1 1-1,-1-1 1,1 1-1,-1-1 0,-1 1 1,1 12-1,-1-18 1,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,-3 0 0,-58 12 21,51-11-17,-72 7-1753</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2272.67">1241 40 13926,'0'0'6739,"4"33"-6675,-4 0 33,0-1-33,0-4-64,0-4 0,0-4-337,0-4-1071,0-6-1281</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2519.51">1245 20 12406,'0'0'5810,"61"-2"-5041,-22 2-353,-1 0-160,-2 0-176,-5 0-64,-12 0-16,-14 0-640,-5 3-3298,-1 13-5650</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2734.48">1230 150 10933,'0'0'6051,"0"7"-6003,19-3 32,2-3-32,2-1-16,0 0-32,0 2-865,-4 3-2576,-4 4-9445</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3181.35">1522 229 13046,'0'0'6163,"90"-17"-5747,-65 12 128,-6 2-208,-6 1-224,-5 0-112,-4 2-32,-10 16-12181</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3565.92">2017 46 16552,'0'0'5720,"-16"-2"-4968,-53-1-301,66 3-443,0 0 1,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,-1-1 0,1 1-1,-1 5 1,-1 2-15,1 0 0,0 0 0,1 1 1,0-1-1,1 20 0,0-28-16,0 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,3 2-1,0-1-140,1 1-1,-1-1 1,1 0-1,-1-1 1,1 1-1,0-1 1,0 1 0,8 0-1,-7-2-12,0 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 0-1,0 0 1,0 0 0,0-1 0,6-3 0,-8 2 196,0 0 0,0-1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 1,3-8-1,-5 12 36,1 0 0,0 0 1,-1 0-1,1-1 0,-1 1 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 1 1,0 0-1,-3-2 0,-7-2-289,-1 2-1,0-1 0,1 2 1,-1 0-1,0 0 0,0 1 1,-1 1-1,-13 1 0,12-1-982,-48 0-7081</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -4889,8 +5270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7554542-CFDC-4114-ADF7-E1610AA301DD}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4931,13 +5312,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4957,7 +5340,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,7 +5352,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,7 +5364,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,7 +5378,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5003,20 +5386,20 @@
         <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,7 +5410,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -5038,10 +5421,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -5052,10 +5435,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>18</v>
@@ -5063,7 +5446,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -5079,7 +5462,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,7 +5474,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,7 +5486,7 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,11 +5494,11 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5123,7 +5506,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
@@ -5132,22 +5515,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="18" t="s">
-        <v>75</v>
+      <c r="D21" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,11 +5537,11 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="18" t="s">
-        <v>75</v>
+      <c r="D22" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,11 +5549,11 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="18" t="s">
-        <v>75</v>
+      <c r="D23" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,11 +5561,11 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="18" t="s">
-        <v>75</v>
+      <c r="D24" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,21 +5577,21 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>33</v>
@@ -5221,19 +5603,19 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
@@ -5245,7 +5627,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -5257,13 +5639,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>17</v>
@@ -5271,78 +5653,78 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ515\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647EDA5-44C7-43DE-9459-2113E4735827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18ECBF-648C-4E51-AA16-1D71CDB346F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
   </bookViews>
@@ -269,21 +269,6 @@
     <t>PE11</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PC8*    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PB2</t>
-    </r>
-  </si>
-  <si>
     <t>3 microphones</t>
   </si>
   <si>
@@ -303,13 +288,16 @@
   </si>
   <si>
     <t>PF0*</t>
+  </si>
+  <si>
+    <t>PB2*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,13 +317,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3261,71 +3242,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>448110</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>505350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>48840</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="15" name="Ink 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1596BB-D31C-846E-6C4A-C9C5756C492F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="14106960" y="3614145"/>
-            <a:ext cx="57240" cy="63720"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="Ink 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1596BB-D31C-846E-6C4A-C9C5756C492F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14100840" y="3608025"/>
-              <a:ext cx="69480" cy="75960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
       <xdr:colOff>418230</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>110700</xdr:rowOff>
@@ -3338,7 +3254,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
               <a:extLst>
@@ -3401,8 +3317,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>164295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -3421,7 +3337,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -3466,8 +3382,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>103740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Ink 23">
@@ -3486,7 +3402,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Ink 23">
@@ -3531,8 +3447,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>97260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Ink 45">
@@ -3551,7 +3467,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Ink 45">
@@ -3596,8 +3512,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Ink 48">
@@ -3616,7 +3532,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="49" name="Ink 48">
@@ -3638,6 +3554,71 @@
             <a:xfrm>
               <a:off x="7462877" y="7446127"/>
               <a:ext cx="758160" cy="130357"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>532213</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>595213</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80457</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E506DC-F39D-F0E3-DB12-A2724CE888C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16078670" y="6899580"/>
+            <a:ext cx="63000" cy="47160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E506DC-F39D-F0E3-DB12-A2724CE888C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16072550" y="6893460"/>
+              <a:ext cx="75240" cy="59400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4648,34 +4629,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:54:09.006"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">158 58 2049,'0'0'10157,"-9"-1"-8551,-29-5-344,35 6-1184,-1 0 1,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,1 0 0,0 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,1 0 0,-1 0 0,-1 3 0,-6 8 158,9-14-240,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,1-1 0,-1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,35 0 388,-29 0-256,-6-3-35,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1-3 0,1 3 124,0 1-171,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,-2-2 0,-28-2 434,22 4-505,8 0-42,3 49-207,0-48 269,0 0-1,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,0 0 0,0 1 1,0-2-1,0 1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 0,0 0 1,-1 1-1,1-1 1,0 0-1,2-2 1,-2 0 23,0 1 0,-1 0 0,1-1 0,-1 0 1,1 1-1,-1-1 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,-1-4 0,2 5 31,-1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,-1-2 0,-1 2-24,1 1-1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 1,1 0-1,-7 0 0,7 0-57,1 0 29,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 2 0,1 1-6,0 0 0,0-1 0,0 1 0,1 0 0,0 0 1,-1-1-1,1 1 0,1 4 0,-1 5-7,0-11 10,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 0 0,4 3 0,-1-2-33,0 0 0,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 1,1-1-1,-1 1 1,1-1-1,5 0 0,-9-1 50,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,-1-3 0,1 2 1,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,-1 1 0,-1-2 0,2 1-13,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 1 0,0 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0-1,0 2 1,-1 5-32,1-1 0,0 0-1,0 1 1,1-1 0,0 0 0,1 10 0,0 4-144,0-19 136,0-1 1,0 0-1,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,3-1-1,-2 1 48,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,-1-1 0,1 0 0,0 0 1,0 0-1,0 1 0,0-2 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,1-3 0,-2-1 95,0 0-1,0 0 1,0 0 0,-1 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,-1-9 1,1 12-82,1 0 1,-1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 1 1,0 0 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1-1,1 0 1,-3 1 0,4 41-2797,16-46 3206,-16 4-396,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,-9-4-755,21 6-1822,7 0-2930</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2025-03-03T20:54:18.954"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -4688,7 +4641,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4716,7 +4669,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4744,7 +4697,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4777,7 +4730,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4808,6 +4761,34 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2734.48">1230 150 10933,'0'0'6051,"0"7"-6003,19-3 32,2-3-32,2-1-16,0 0-32,0 2-865,-4 3-2576,-4 4-9445</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3181.35">1522 229 13046,'0'0'6163,"90"-17"-5747,-65 12 128,-6 2-208,-6 1-224,-5 0-112,-4 2-32,-10 16-12181</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3565.92">2017 46 16552,'0'0'5720,"-16"-2"-4968,-53-1-301,66 3-443,0 0 1,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,-1-1 0,1 1-1,-1 5 1,-1 2-15,1 0 0,0 0 0,1 1 1,0-1-1,1 20 0,0-28-16,0 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,3 2-1,0-1-140,1 1-1,-1-1 1,1 0-1,-1-1 1,1 1-1,0-1 1,0 1 0,8 0-1,-7-2-12,0 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 0-1,0 0 1,0 0 0,0-1 0,6-3 0,-8 2 196,0 0 0,0-1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 1,3-8-1,-5 12 36,1 0 0,0 0 1,-1 0-1,1-1 0,-1 1 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 1 1,0 0-1,-3-2 0,-7-2-289,-1 2-1,0-1 0,1 2 1,-1 0-1,0 0 0,0 1 1,-1 1-1,-13 1 0,12-1-982,-48 0-7081</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-03-11T15:00:13.588"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 88 1569,'0'0'12440,"-1"0"-12203,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,-2-2-1,3-7-405,0 9 195,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,0 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,1-1 0,-1 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,-1 0 0,-2 0-22,-29 2 44,32-2-51,0 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,1-1 0,-1 1-1,1 0 1,-1 0 0,1-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1-1 0,0 3-1,4-2-41,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,1 0 1,-1 0-1,5 0 0,-9 0 6,50 0-1600,-50-39 2016,-1 37-322,-1 1 1,1-1-1,0 0 0,-1 1 1,1 0-1,0-1 1,-1 1-1,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 1 0,0-1 1,0 0-1,0 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0 0 0,-2 3 1,2-1-94,1 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,1 0 1,2 4-1,-1-4-167,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,5 0 1,-6 0 76,-1 0 0,0 1 0,1-1 0,-1 0 1,1-1-1,-1 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,2-3 1,-2 0 226,0 0 0,-1 0 1,1-1-1,-1 1 0,-1 0 1,1 0-1,0-1 0,-1 1 1,0 0-1,-1-9 0,1 11 9,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1 0,0 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,-3-1 0,-3 0 102,0 0 0,0 0 1,1 0-1,-1 1 1,0 1-1,0-1 0,-8 3 1,14-3-206,0 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,1-1 0,-2 5 0,2-5-17,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,2 2 0,5 0-230,1 0 0,1-1 0,-1 0 1,0-1-1,0 1 0,1-2 0,-1 1 0,0-2 0,12 0 0,7 0-1095,-27 1 1341,0-1 1,0 1 0,-1-1-1,1 1 1,0 0-1,-1-1 1,1 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 0 0,1 1-1,-1-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,0 1 1,-1-3-1,1 1 108,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 1 1,-3-4 0,-4 2 141,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0 0 0,-1 1 0,1 0 1,-17 2-1,-2-2 442,27 1-709,-1-1 1,1 0-1,0 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 0,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,1-1 1,-1 1-145,0-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,0 0-1,20 0-9064</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5270,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7554542-CFDC-4114-ADF7-E1610AA301DD}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,10 +5293,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="17" t="s">
@@ -5421,7 +5402,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>64</v>
@@ -5435,7 +5416,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>65</v>
@@ -5506,7 +5487,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
@@ -5639,13 +5620,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>17</v>

--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ515\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PROJ515\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18ECBF-648C-4E51-AA16-1D71CDB346F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD4D390-9558-4E99-A693-EFE2BAB83CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{25789AAF-949D-45D3-BF4B-34A873866BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Light wake/sleep</t>
   </si>
   <si>
-    <t>mic_int1:mic_int0</t>
-  </si>
-  <si>
     <t>Acc_int</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>PD15</t>
   </si>
   <si>
-    <t>PF12</t>
-  </si>
-  <si>
     <t>PF13</t>
   </si>
   <si>
@@ -291,6 +285,12 @@
   </si>
   <si>
     <t>PB2*</t>
+  </si>
+  <si>
+    <t>mic_int240:mic_int6k</t>
+  </si>
+  <si>
+    <t>PA6:Pf12</t>
   </si>
 </sst>
 </file>
@@ -3577,8 +3577,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>80457</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -3597,7 +3597,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -5251,19 +5251,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7554542-CFDC-4114-ADF7-E1610AA301DD}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -5291,19 +5291,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -5374,16 +5374,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5391,50 +5391,50 @@
         <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -5443,10 +5443,10 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -5455,10 +5455,10 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -5467,112 +5467,112 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>33</v>
@@ -5582,7 +5582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>43</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
@@ -5618,92 +5618,92 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>59</v>
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
